--- a/res_nodict/resultados_frecuencia_solola.xlsx
+++ b/res_nodict/resultados_frecuencia_solola.xlsx
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>transparencia</t>
+          <t>acceso</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -459,7 +459,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>acceso</t>
+          <t>transparencia</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -499,7 +499,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>datos</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -509,7 +509,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>información</t>
+          <t>decisiones</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -519,7 +519,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>decisiones</t>
+          <t>planes</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -529,7 +529,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>planes</t>
+          <t>presupuesto</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -539,7 +539,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>presupuesto</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -549,7 +549,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>situación</t>
+          <t>autoridad</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -559,7 +559,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>periódico</t>
+          <t>desarrollo</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -569,7 +569,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>decisiones comunitarias</t>
+          <t>medios</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -579,7 +579,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>desarrollo</t>
+          <t>periódico</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nivel local</t>
+          <t>auditoría social</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -599,7 +599,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>auditoría social</t>
+          <t>nivel local</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -609,7 +609,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ayuda</t>
+          <t>dinero</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -619,7 +619,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>autoridad</t>
+          <t>situación</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -629,7 +629,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dinero</t>
+          <t>procesos</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -639,7 +639,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>participación</t>
+          <t>acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -649,7 +649,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lago</t>
+          <t>atitlán</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -659,7 +659,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Atitlán</t>
+          <t>información efectiva</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -669,7 +669,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>información efectiva</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -679,7 +679,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>acciones</t>
+          <t>datos exactos</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -689,7 +689,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>datos exactos</t>
+          <t>constructoras</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -699,7 +699,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>constructoras</t>
+          <t>decisiones comunitarias</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -709,7 +709,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>medios</t>
+          <t>comunidades</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -719,7 +719,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>coordinación</t>
+          <t>proceso</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -729,7 +729,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>procesos</t>
+          <t>, educación</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -739,7 +739,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>comunidades</t>
+          <t>gastos</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -759,7 +759,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gastos</t>
+          <t>calidad</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -779,7 +779,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>calidad</t>
+          <t>información concreta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -789,7 +789,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>información concreta</t>
+          <t>presupuestos</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -799,7 +799,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>presupuestos</t>
+          <t>análisis correspondiente</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -809,7 +809,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>análisis correspondiente</t>
+          <t>necesidades</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -819,7 +819,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>salud</t>
+          <t>participación</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -829,7 +829,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>, educación</t>
+          <t>salud</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -839,7 +839,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>necesidades</t>
+          <t>costos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -849,7 +849,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sobregastos</t>
+          <t>fondos asignados</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -859,7 +859,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>costos</t>
+          <t>sobregastos</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -869,7 +869,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fondos asignados</t>
+          <t>autoridades</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -879,7 +879,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>proceso</t>
+          <t>ayuda</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -889,7 +889,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>autoridades</t>
+          <t>coordinación</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,7 +980,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>, Datos</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -990,7 +990,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>, Violencia</t>
+          <t>, documentos</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1000,7 +1000,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Información</t>
+          <t>presupuesto</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1010,17 +1010,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>, vivienda</t>
+          <t>, violencia</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Datos estadísticos</t>
+          <t>partes</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1030,7 +1030,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Datos estadísticos contables</t>
+          <t>, vivienda</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1040,7 +1040,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Presupuesto</t>
+          <t>empresas</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1050,7 +1050,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>página web</t>
+          <t>información clara</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1060,7 +1060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>empresas</t>
+          <t>fondos públicos</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1070,7 +1070,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>partes</t>
+          <t>, convenios</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1080,7 +1080,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>, convenios</t>
+          <t>solución</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1090,7 +1090,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fondos públicos</t>
+          <t>servicios básicos</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1100,7 +1100,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Información clara</t>
+          <t>datos estadísticos contables</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1110,7 +1110,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>temas</t>
+          <t>, actividades</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1120,7 +1120,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>, violencia</t>
+          <t>datos estadísticos</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1130,7 +1130,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bases confiables</t>
+          <t>recolección</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1140,7 +1140,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>embarazo</t>
+          <t>temas</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1160,7 +1160,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Datos generales</t>
+          <t>bases confiables</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1170,7 +1170,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>, documentos</t>
+          <t>embarazo</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1180,7 +1180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>verificación</t>
+          <t>datos generales</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1210,7 +1210,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Datos informativos</t>
+          <t>verificación</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1220,7 +1220,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>presupuesto</t>
+          <t>datos informativos</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1230,7 +1230,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cantidad</t>
+          <t>actualización</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1240,7 +1240,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>estadísticas</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1250,7 +1250,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>actualización</t>
+          <t>estadísticas</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1260,7 +1260,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>solución</t>
+          <t>página web</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1270,7 +1270,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>recolección</t>
+          <t>basura</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1280,7 +1280,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>basura</t>
+          <t>, datos</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1290,7 +1290,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>, Proyectos</t>
+          <t>, educación</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1300,7 +1300,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>, Documentos</t>
+          <t>, programas</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1310,7 +1310,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>, Actividades</t>
+          <t>, proyectos</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1320,7 +1320,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gobierno</t>
+          <t>apoyo</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1330,7 +1330,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>, Programas</t>
+          <t>gobierno</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1340,7 +1340,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>apoyo</t>
+          <t>instituciones</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1370,7 +1370,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>instituciones</t>
+          <t>, alumbrado</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1380,7 +1380,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Salud</t>
+          <t>, ambiente</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1390,7 +1390,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>, Educación</t>
+          <t>, desintegración</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1400,7 +1400,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>, Ambiente</t>
+          <t>, desnutrición</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1410,7 +1410,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>, Alumbrado</t>
+          <t>, matrimonios</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1420,7 +1420,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>, electricidad</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1430,7 +1430,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>, Desnutrición</t>
+          <t>, migración</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1440,7 +1440,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>, Migración</t>
+          <t>mujer</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1450,7 +1450,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tecnología</t>
+          <t>salud</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1460,7 +1460,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>, Desintegración</t>
+          <t>tecnología</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1470,7 +1470,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>, Matrimonios</t>
+          <t>, costo</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1480,7 +1480,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Listado</t>
+          <t>, listado</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1490,7 +1490,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>programas ejecutados</t>
+          <t>detalles</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1500,7 +1500,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>, Listado</t>
+          <t>listado</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1510,7 +1510,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>proveedores</t>
+          <t>programas ejecutados</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1520,7 +1520,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>, Costo</t>
+          <t>proveedores</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1540,40 +1540,10 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>detalles</t>
+          <t>ine</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>servicios básicos</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>, electricidad</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>INE</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
         <v>1</v>
       </c>
     </row>

--- a/res_nodict/resultados_frecuencia_solola.xlsx
+++ b/res_nodict/resultados_frecuencia_solola.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P1_freq" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="P2_freq" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1_freq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2_freq" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
